--- a/局外维修损耗计算器/S5护甲数据.xlsx
+++ b/局外维修损耗计算器/S5护甲数据.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor2\Desktop\三角洲行动\三角洲行动计算模拟器\局外维修损耗计算器\初级维修\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor2\Desktop\三角洲行动\三角洲行动计算模拟器\夺金伤害计算模拟\通用武器\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B281F736-2416-446E-9FFA-7E8A113703B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DFCFB3-1F97-4D06-9E51-6DBF5F47753F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{DA9659AD-064F-414B-8551-2A3419EEC3A3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="77">
   <si>
     <t>有</t>
   </si>
@@ -44,16 +44,10 @@
     <t>H70夜视精英头盔</t>
   </si>
   <si>
-    <t>中</t>
-  </si>
-  <si>
     <t>H70精英头盔</t>
   </si>
   <si>
     <t>GT5指挥官头盔</t>
-  </si>
-  <si>
-    <t>唯一没有面罩的6级头</t>
   </si>
   <si>
     <t>13-13.1</t>
@@ -86,16 +80,7 @@
     <t>GN重型头盔</t>
   </si>
   <si>
-    <t>扛不住5级弹一枪头</t>
-  </si>
-  <si>
-    <t>高</t>
-  </si>
-  <si>
     <t>DICH-1战术头盔</t>
-  </si>
-  <si>
-    <t>同样放大喘息，视野更小</t>
   </si>
   <si>
     <t>Mask-1 铁壁头盔</t>
@@ -110,13 +95,7 @@
     <t>GT1战术头盔</t>
   </si>
   <si>
-    <t>最大听力加成没有之一</t>
-  </si>
-  <si>
     <t>DICH训练头盔</t>
-  </si>
-  <si>
-    <t>呼吸声会被放大，很影响信息获取</t>
   </si>
   <si>
     <t>D6战术头盔</t>
@@ -125,13 +104,7 @@
     <t>H07战术头盔</t>
   </si>
   <si>
-    <t>说是有面罩，但实际没有</t>
-  </si>
-  <si>
     <t>MC201头盔</t>
-  </si>
-  <si>
-    <t>唯一能扛一枪头</t>
   </si>
   <si>
     <t>DAS防弹头盔</t>
@@ -155,9 +128,6 @@
     <t>安保头盔</t>
   </si>
   <si>
-    <t>低</t>
-  </si>
-  <si>
     <t>户外棒球帽</t>
   </si>
   <si>
@@ -165,15 +135,6 @@
   </si>
   <si>
     <t>老式钢盔</t>
-  </si>
-  <si>
-    <t>个人备注</t>
-  </si>
-  <si>
-    <t>降噪效果</t>
-  </si>
-  <si>
-    <t>听力范围</t>
   </si>
   <si>
     <t>重甲</t>
@@ -331,6 +292,14 @@
   <si>
     <t>鉴于官方存在改内容不写入公告的行为，当游戏内数据与表格记录冲突时，以游戏内为准，并私聊我们更新表格数据</t>
   </si>
+  <si>
+    <t>护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头盔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -466,7 +435,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -562,6 +531,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -897,13 +872,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB26EA9E-056E-45BE-8898-D31BB0456E1D}">
-  <dimension ref="A1:AC207"/>
+  <dimension ref="A1:AC209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="H33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q58" sqref="Q58"/>
+      <selection pane="bottomRight" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.21875" defaultRowHeight="18" customHeight="1"/>
@@ -916,17 +891,17 @@
   <sheetData>
     <row r="1" spans="1:29" ht="18" customHeight="1">
       <c r="B1" s="12" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="F1" s="14"/>
       <c r="G1" s="13" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="12" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="15"/>
@@ -952,55 +927,55 @@
     <row r="2" spans="1:29" ht="18" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="O2" s="18" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="P2" s="18" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="Q2" s="19" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="R2" s="19" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
@@ -1010,64 +985,26 @@
       <c r="AB2" s="2"/>
     </row>
     <row r="3" spans="1:29" ht="18" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="11">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="3">
-        <v>2.44</v>
-      </c>
-      <c r="G3" s="2">
-        <v>20</v>
-      </c>
-      <c r="H3" s="21">
-        <v>17</v>
-      </c>
-      <c r="I3" s="21">
-        <v>0.15</v>
-      </c>
-      <c r="J3" s="21">
-        <v>55</v>
-      </c>
-      <c r="K3" s="16">
-        <v>3</v>
-      </c>
-      <c r="L3" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="17">
-        <v>6</v>
-      </c>
-      <c r="N3" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="O3" s="18">
-        <v>8</v>
-      </c>
-      <c r="P3" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q3" s="19">
-        <v>9</v>
-      </c>
-      <c r="R3" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
@@ -1077,51 +1014,59 @@
     </row>
     <row r="4" spans="1:29" ht="18" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B4" s="11">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4" s="3">
-        <v>1.7</v>
+        <v>2.44</v>
       </c>
       <c r="G4" s="2">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H4" s="21">
-        <v>22.75</v>
+        <v>17</v>
       </c>
       <c r="I4" s="21">
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
       <c r="J4" s="21">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="K4" s="16">
         <v>3</v>
       </c>
-      <c r="L4" s="29"/>
+      <c r="L4" s="22" t="s">
+        <v>6</v>
+      </c>
       <c r="M4" s="17">
         <v>6</v>
       </c>
-      <c r="N4" s="29"/>
+      <c r="N4" s="24" t="s">
+        <v>6</v>
+      </c>
       <c r="O4" s="18">
         <v>8</v>
       </c>
-      <c r="P4" s="29"/>
+      <c r="P4" s="25" t="s">
+        <v>5</v>
+      </c>
       <c r="Q4" s="19">
         <v>9</v>
       </c>
-      <c r="R4" s="29"/>
+      <c r="R4" s="26" t="s">
+        <v>4</v>
+      </c>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
@@ -1135,34 +1080,34 @@
     </row>
     <row r="5" spans="1:29" ht="18" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B5" s="11">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F5" s="3">
-        <v>3.07</v>
+        <v>1.7</v>
       </c>
       <c r="G5" s="2">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H5" s="21">
-        <v>28.2</v>
+        <v>22.75</v>
       </c>
       <c r="I5" s="21">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="J5" s="21">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="K5" s="16">
         <v>3</v>
@@ -1193,34 +1138,34 @@
     </row>
     <row r="6" spans="1:29" ht="18" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B6" s="11">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F6" s="3">
-        <v>2.44</v>
+        <v>3.07</v>
       </c>
       <c r="G6" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H6" s="21">
-        <v>17.600000000000001</v>
+        <v>28.2</v>
       </c>
       <c r="I6" s="21">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="J6" s="21">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="K6" s="16">
         <v>3</v>
@@ -1250,24 +1195,52 @@
       <c r="AB6" s="2"/>
     </row>
     <row r="7" spans="1:29" ht="18" customHeight="1">
-      <c r="A7" s="30"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
+      <c r="A7" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="11">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2.44</v>
+      </c>
+      <c r="G7" s="2">
+        <v>20</v>
+      </c>
+      <c r="H7" s="21">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="I7" s="21">
+        <v>0.12</v>
+      </c>
+      <c r="J7" s="21">
+        <v>55</v>
+      </c>
+      <c r="K7" s="16">
+        <v>3</v>
+      </c>
+      <c r="L7" s="29"/>
+      <c r="M7" s="17">
+        <v>6</v>
+      </c>
+      <c r="N7" s="29"/>
+      <c r="O7" s="18">
+        <v>8</v>
+      </c>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="19">
+        <v>9</v>
+      </c>
+      <c r="R7" s="29"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
@@ -1280,60 +1253,24 @@
       <c r="AB7" s="2"/>
     </row>
     <row r="8" spans="1:29" ht="18" customHeight="1">
-      <c r="A8" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" s="10">
-        <v>2</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="3">
-        <v>2.74</v>
-      </c>
-      <c r="G8" s="2">
-        <v>30</v>
-      </c>
-      <c r="H8" s="2">
-        <v>25.5</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="J8" s="21">
-        <v>101</v>
-      </c>
-      <c r="K8" s="16">
-        <v>2</v>
-      </c>
-      <c r="L8" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="M8" s="17">
-        <v>4</v>
-      </c>
-      <c r="N8" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="O8" s="18">
-        <v>6</v>
-      </c>
-      <c r="P8" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q8" s="19">
-        <v>7</v>
-      </c>
-      <c r="R8" s="26" t="s">
-        <v>6</v>
-      </c>
+      <c r="A8" s="30"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
@@ -1347,51 +1284,59 @@
     </row>
     <row r="9" spans="1:29" ht="18" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B9" s="10">
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F9" s="3">
-        <v>4.04</v>
+        <v>2.74</v>
       </c>
       <c r="G9" s="2">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H9" s="2">
-        <v>36.4</v>
+        <v>25.5</v>
       </c>
       <c r="I9" s="2">
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
       <c r="J9" s="21">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="K9" s="16">
         <v>2</v>
       </c>
-      <c r="L9" s="29"/>
+      <c r="L9" s="22" t="s">
+        <v>6</v>
+      </c>
       <c r="M9" s="17">
         <v>4</v>
       </c>
-      <c r="N9" s="29"/>
+      <c r="N9" s="24" t="s">
+        <v>6</v>
+      </c>
       <c r="O9" s="18">
         <v>6</v>
       </c>
-      <c r="P9" s="29"/>
+      <c r="P9" s="25" t="s">
+        <v>5</v>
+      </c>
       <c r="Q9" s="19">
         <v>7</v>
       </c>
-      <c r="R9" s="29"/>
+      <c r="R9" s="26" t="s">
+        <v>4</v>
+      </c>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
@@ -1405,34 +1350,34 @@
     </row>
     <row r="10" spans="1:29" ht="18" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B10" s="10">
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F10" s="3">
-        <v>4.1900000000000004</v>
+        <v>4.04</v>
       </c>
       <c r="G10" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H10" s="2">
-        <v>47</v>
+        <v>36.4</v>
       </c>
       <c r="I10" s="2">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="J10" s="21">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="K10" s="16">
         <v>2</v>
@@ -1463,34 +1408,34 @@
     </row>
     <row r="11" spans="1:29" ht="18" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B11" s="10">
         <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F11" s="3">
-        <v>3.38</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="G11" s="2">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H11" s="2">
-        <v>30.8</v>
+        <v>47</v>
       </c>
       <c r="I11" s="2">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="J11" s="21">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="K11" s="16">
         <v>2</v>
@@ -1520,24 +1465,52 @@
       <c r="AB11" s="2"/>
     </row>
     <row r="12" spans="1:29" ht="18" customHeight="1">
-      <c r="A12" s="30"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="31"/>
+      <c r="A12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="10">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="3">
+        <v>3.38</v>
+      </c>
+      <c r="G12" s="2">
+        <v>35</v>
+      </c>
+      <c r="H12" s="2">
+        <v>30.8</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="J12" s="21">
+        <v>91</v>
+      </c>
+      <c r="K12" s="16">
+        <v>2</v>
+      </c>
+      <c r="L12" s="29"/>
+      <c r="M12" s="17">
+        <v>4</v>
+      </c>
+      <c r="N12" s="29"/>
+      <c r="O12" s="18">
+        <v>6</v>
+      </c>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="19">
+        <v>7</v>
+      </c>
+      <c r="R12" s="29"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
@@ -1550,60 +1523,24 @@
       <c r="AB12" s="2"/>
     </row>
     <row r="13" spans="1:29" ht="18" customHeight="1">
-      <c r="A13" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="9">
-        <v>3</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="4">
-        <v>-0.01</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="3">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="G13" s="2">
-        <v>50</v>
-      </c>
-      <c r="H13" s="2">
-        <v>47.5</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="J13" s="2">
-        <v>145</v>
-      </c>
-      <c r="K13" s="16">
-        <v>1.55</v>
-      </c>
-      <c r="L13" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="M13" s="17">
-        <v>2.5</v>
-      </c>
-      <c r="N13" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="O13" s="18">
-        <v>3.91</v>
-      </c>
-      <c r="P13" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q13" s="19">
-        <v>5.86</v>
-      </c>
-      <c r="R13" s="26" t="s">
-        <v>6</v>
-      </c>
+      <c r="A13" s="30"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="31"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
@@ -1617,51 +1554,59 @@
     </row>
     <row r="14" spans="1:29" ht="18" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B14" s="9">
         <v>3</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D14" s="4">
-        <v>-0.03</v>
-      </c>
-      <c r="E14" s="4">
         <v>-0.01</v>
       </c>
+      <c r="E14" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F14" s="3">
-        <v>4.5</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="G14" s="2">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H14" s="2">
-        <v>68.3</v>
+        <v>47.5</v>
       </c>
       <c r="I14" s="2">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="J14" s="2">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="K14" s="16">
-        <v>1.95</v>
-      </c>
-      <c r="L14" s="23"/>
+        <v>1.55</v>
+      </c>
+      <c r="L14" s="22" t="s">
+        <v>6</v>
+      </c>
       <c r="M14" s="17">
-        <v>2.6</v>
-      </c>
-      <c r="N14" s="23"/>
+        <v>2.5</v>
+      </c>
+      <c r="N14" s="24" t="s">
+        <v>6</v>
+      </c>
       <c r="O14" s="18">
-        <v>4.0599999999999996</v>
-      </c>
-      <c r="P14" s="23"/>
+        <v>3.91</v>
+      </c>
+      <c r="P14" s="25" t="s">
+        <v>5</v>
+      </c>
       <c r="Q14" s="19">
-        <v>6.09</v>
-      </c>
-      <c r="R14" s="23"/>
+        <v>5.86</v>
+      </c>
+      <c r="R14" s="26" t="s">
+        <v>4</v>
+      </c>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
@@ -1675,51 +1620,51 @@
     </row>
     <row r="15" spans="1:29" ht="18" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B15" s="9">
         <v>3</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D15" s="4">
-        <v>-0.04</v>
+        <v>-0.03</v>
       </c>
       <c r="E15" s="4">
-        <v>-0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="F15" s="3">
-        <v>6.43</v>
+        <v>4.5</v>
       </c>
       <c r="G15" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="H15" s="2">
-        <v>79.099999999999994</v>
+        <v>68.3</v>
       </c>
       <c r="I15" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.09</v>
       </c>
       <c r="J15" s="2">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="K15" s="16">
-        <v>1.58</v>
-      </c>
-      <c r="L15" s="29"/>
+        <v>1.95</v>
+      </c>
+      <c r="L15" s="23"/>
       <c r="M15" s="17">
-        <v>2.11</v>
-      </c>
-      <c r="N15" s="29"/>
+        <v>2.6</v>
+      </c>
+      <c r="N15" s="23"/>
       <c r="O15" s="18">
-        <v>3.29</v>
-      </c>
-      <c r="P15" s="29"/>
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="P15" s="23"/>
       <c r="Q15" s="19">
-        <v>4.9400000000000004</v>
-      </c>
-      <c r="R15" s="29"/>
+        <v>6.09</v>
+      </c>
+      <c r="R15" s="23"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
@@ -1733,49 +1678,49 @@
     </row>
     <row r="16" spans="1:29" ht="18" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B16" s="9">
         <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="D16" s="4">
-        <v>-0.01</v>
+        <v>-0.04</v>
       </c>
       <c r="E16" s="4">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="F16" s="3">
-        <v>3.23</v>
+        <v>6.43</v>
       </c>
       <c r="G16" s="2">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="H16" s="2">
-        <v>57.6</v>
+        <v>79.099999999999994</v>
       </c>
       <c r="I16" s="2">
-        <v>0.04</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J16" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K16" s="16">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="L16" s="29"/>
       <c r="M16" s="17">
-        <v>2.08</v>
+        <v>2.11</v>
       </c>
       <c r="N16" s="29"/>
       <c r="O16" s="18">
-        <v>3.25</v>
+        <v>3.29</v>
       </c>
       <c r="P16" s="29"/>
       <c r="Q16" s="19">
-        <v>4.88</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="R16" s="29"/>
       <c r="S16" s="2"/>
@@ -1790,24 +1735,52 @@
       <c r="AB16" s="2"/>
     </row>
     <row r="17" spans="1:28" ht="18" customHeight="1">
-      <c r="A17" s="27"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="31"/>
+      <c r="A17" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="9">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="4">
+        <v>-0.01</v>
+      </c>
+      <c r="E17" s="4">
+        <v>-0.01</v>
+      </c>
+      <c r="F17" s="3">
+        <v>3.23</v>
+      </c>
+      <c r="G17" s="2">
+        <v>60</v>
+      </c>
+      <c r="H17" s="2">
+        <v>57.6</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="J17" s="2">
+        <v>140</v>
+      </c>
+      <c r="K17" s="16">
+        <v>1.56</v>
+      </c>
+      <c r="L17" s="29"/>
+      <c r="M17" s="17">
+        <v>2.08</v>
+      </c>
+      <c r="N17" s="29"/>
+      <c r="O17" s="18">
+        <v>3.25</v>
+      </c>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="19">
+        <v>4.88</v>
+      </c>
+      <c r="R17" s="29"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
@@ -1820,60 +1793,24 @@
       <c r="AB17" s="2"/>
     </row>
     <row r="18" spans="1:28" ht="18" customHeight="1">
-      <c r="A18" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="8">
-        <v>4</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="4">
-        <v>-0.05</v>
-      </c>
-      <c r="E18" s="4">
-        <v>-0.05</v>
-      </c>
-      <c r="F18" s="3">
-        <v>7.12</v>
-      </c>
-      <c r="G18" s="2">
-        <v>80</v>
-      </c>
-      <c r="H18" s="2">
-        <v>75.2</v>
-      </c>
-      <c r="I18" s="2">
-        <v>0.06</v>
-      </c>
-      <c r="J18" s="2">
-        <v>168</v>
-      </c>
-      <c r="K18" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="L18" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="M18" s="17">
-        <v>1.86</v>
-      </c>
-      <c r="N18" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="O18" s="18">
-        <v>2.92</v>
-      </c>
-      <c r="P18" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q18" s="19">
-        <v>4.38</v>
-      </c>
-      <c r="R18" s="26" t="s">
-        <v>6</v>
-      </c>
+      <c r="A18" s="27"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="31"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
@@ -1887,51 +1824,59 @@
     </row>
     <row r="19" spans="1:28" ht="18" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B19" s="8">
         <v>4</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D19" s="4">
-        <v>-0.04</v>
+        <v>-0.05</v>
       </c>
       <c r="E19" s="4">
-        <v>-0.03</v>
+        <v>-0.05</v>
       </c>
       <c r="F19" s="3">
-        <v>8.34</v>
+        <v>7.12</v>
       </c>
       <c r="G19" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H19" s="2">
-        <v>90</v>
+        <v>75.2</v>
       </c>
       <c r="I19" s="2">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="J19" s="2">
-        <v>221</v>
+        <v>168</v>
       </c>
       <c r="K19" s="16">
         <v>0.5</v>
       </c>
-      <c r="L19" s="23"/>
+      <c r="L19" s="22" t="s">
+        <v>6</v>
+      </c>
       <c r="M19" s="17">
-        <v>1.26</v>
-      </c>
-      <c r="N19" s="23"/>
+        <v>1.86</v>
+      </c>
+      <c r="N19" s="24" t="s">
+        <v>6</v>
+      </c>
       <c r="O19" s="18">
-        <v>1.97</v>
-      </c>
-      <c r="P19" s="23"/>
+        <v>2.92</v>
+      </c>
+      <c r="P19" s="25" t="s">
+        <v>5</v>
+      </c>
       <c r="Q19" s="19">
-        <v>2.95</v>
-      </c>
-      <c r="R19" s="23"/>
+        <v>4.38</v>
+      </c>
+      <c r="R19" s="26" t="s">
+        <v>4</v>
+      </c>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
@@ -1945,51 +1890,51 @@
     </row>
     <row r="20" spans="1:28" ht="18" customHeight="1">
       <c r="A20" s="6" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B20" s="8">
         <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D20" s="4">
-        <v>-0.05</v>
+        <v>-0.04</v>
       </c>
       <c r="E20" s="4">
-        <v>-0.05</v>
+        <v>-0.03</v>
       </c>
       <c r="F20" s="3">
-        <v>9.84</v>
+        <v>8.34</v>
       </c>
       <c r="G20" s="2">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="H20" s="2">
-        <v>100.1</v>
+        <v>90</v>
       </c>
       <c r="I20" s="2">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="J20" s="2">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K20" s="16">
-        <v>0.41</v>
-      </c>
-      <c r="L20" s="29"/>
+        <v>0.5</v>
+      </c>
+      <c r="L20" s="23"/>
       <c r="M20" s="17">
-        <v>1.41</v>
-      </c>
-      <c r="N20" s="29"/>
+        <v>1.26</v>
+      </c>
+      <c r="N20" s="23"/>
       <c r="O20" s="18">
-        <v>2.21</v>
-      </c>
-      <c r="P20" s="29"/>
+        <v>1.97</v>
+      </c>
+      <c r="P20" s="23"/>
       <c r="Q20" s="19">
-        <v>3.31</v>
-      </c>
-      <c r="R20" s="29"/>
+        <v>2.95</v>
+      </c>
+      <c r="R20" s="23"/>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
@@ -2003,49 +1948,49 @@
     </row>
     <row r="21" spans="1:28" ht="18" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B21" s="8">
         <v>4</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D21" s="4">
-        <v>-0.02</v>
+        <v>-0.05</v>
       </c>
       <c r="E21" s="4">
-        <v>-0.01</v>
+        <v>-0.05</v>
       </c>
       <c r="F21" s="3">
-        <v>5.64</v>
+        <v>9.84</v>
       </c>
       <c r="G21" s="2">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="H21" s="2">
-        <v>73.8</v>
+        <v>100.1</v>
       </c>
       <c r="I21" s="2">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="J21" s="2">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="K21" s="16">
-        <v>0.24</v>
+        <v>0.41</v>
       </c>
       <c r="L21" s="29"/>
       <c r="M21" s="17">
-        <v>1.19</v>
+        <v>1.41</v>
       </c>
       <c r="N21" s="29"/>
       <c r="O21" s="18">
-        <v>1.87</v>
+        <v>2.21</v>
       </c>
       <c r="P21" s="29"/>
       <c r="Q21" s="19">
-        <v>2.8</v>
+        <v>3.31</v>
       </c>
       <c r="R21" s="29"/>
       <c r="S21" s="2"/>
@@ -2061,49 +2006,49 @@
     </row>
     <row r="22" spans="1:28" ht="18" customHeight="1">
       <c r="A22" s="6" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B22" s="8">
         <v>4</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="D22" s="4">
+        <v>-0.02</v>
+      </c>
+      <c r="E22" s="4">
+        <v>-0.01</v>
       </c>
       <c r="F22" s="3">
-        <v>3.88</v>
+        <v>5.64</v>
       </c>
       <c r="G22" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H22" s="2">
-        <v>72</v>
+        <v>73.8</v>
       </c>
       <c r="I22" s="2">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="J22" s="2">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="K22" s="16">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="L22" s="29"/>
       <c r="M22" s="17">
-        <v>1.35</v>
+        <v>1.19</v>
       </c>
       <c r="N22" s="29"/>
       <c r="O22" s="18">
-        <v>2.11</v>
+        <v>1.87</v>
       </c>
       <c r="P22" s="29"/>
       <c r="Q22" s="19">
-        <v>3.16</v>
+        <v>2.8</v>
       </c>
       <c r="R22" s="29"/>
       <c r="S22" s="2"/>
@@ -2118,24 +2063,52 @@
       <c r="AB22" s="2"/>
     </row>
     <row r="23" spans="1:28" ht="18" customHeight="1">
-      <c r="A23" s="27"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="31"/>
-      <c r="R23" s="31"/>
+      <c r="A23" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="8">
+        <v>4</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="3">
+        <v>3.88</v>
+      </c>
+      <c r="G23" s="2">
+        <v>80</v>
+      </c>
+      <c r="H23" s="2">
+        <v>72</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J23" s="2">
+        <v>262</v>
+      </c>
+      <c r="K23" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="L23" s="29"/>
+      <c r="M23" s="17">
+        <v>1.35</v>
+      </c>
+      <c r="N23" s="29"/>
+      <c r="O23" s="18">
+        <v>2.11</v>
+      </c>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="19">
+        <v>3.16</v>
+      </c>
+      <c r="R23" s="29"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
@@ -2148,60 +2121,24 @@
       <c r="AB23" s="2"/>
     </row>
     <row r="24" spans="1:28" ht="18" customHeight="1">
-      <c r="A24" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="7">
-        <v>5</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="4">
-        <v>-0.01</v>
-      </c>
-      <c r="F24" s="3">
-        <v>4.8499999999999996</v>
-      </c>
-      <c r="G24" s="2">
-        <v>95</v>
-      </c>
-      <c r="H24" s="2">
-        <v>83.6</v>
-      </c>
-      <c r="I24" s="2">
-        <v>0.12</v>
-      </c>
-      <c r="J24" s="2">
-        <v>394</v>
-      </c>
-      <c r="K24" s="16">
-        <v>0.19</v>
-      </c>
-      <c r="L24" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="M24" s="17">
-        <v>0.32</v>
-      </c>
-      <c r="N24" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="O24" s="18">
-        <v>1.19</v>
-      </c>
-      <c r="P24" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q24" s="19">
-        <v>1.78</v>
-      </c>
-      <c r="R24" s="26" t="s">
-        <v>6</v>
-      </c>
+      <c r="A24" s="27"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="31"/>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
@@ -2215,51 +2152,59 @@
     </row>
     <row r="25" spans="1:28" ht="18" customHeight="1">
       <c r="A25" s="6" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B25" s="7">
         <v>5</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="4">
-        <v>-0.05</v>
+        <v>40</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="E25" s="4">
-        <v>-0.03</v>
+        <v>-0.01</v>
       </c>
       <c r="F25" s="3">
-        <v>7.12</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="G25" s="2">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="H25" s="2">
-        <v>95.55</v>
+        <v>83.6</v>
       </c>
       <c r="I25" s="2">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="J25" s="2">
-        <v>587</v>
+        <v>394</v>
       </c>
       <c r="K25" s="16">
-        <v>0.18</v>
-      </c>
-      <c r="L25" s="29"/>
+        <v>0.19</v>
+      </c>
+      <c r="L25" s="22" t="s">
+        <v>6</v>
+      </c>
       <c r="M25" s="17">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="N25" s="29"/>
+        <v>0.32</v>
+      </c>
+      <c r="N25" s="24" t="s">
+        <v>6</v>
+      </c>
       <c r="O25" s="18">
-        <v>0.81</v>
-      </c>
-      <c r="P25" s="29"/>
+        <v>1.19</v>
+      </c>
+      <c r="P25" s="25" t="s">
+        <v>5</v>
+      </c>
       <c r="Q25" s="19">
-        <v>1.21</v>
-      </c>
-      <c r="R25" s="29"/>
+        <v>1.78</v>
+      </c>
+      <c r="R25" s="26" t="s">
+        <v>4</v>
+      </c>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
@@ -2273,49 +2218,49 @@
     </row>
     <row r="26" spans="1:28" ht="18" customHeight="1">
       <c r="A26" s="6" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B26" s="7">
         <v>5</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D26" s="4">
-        <v>-0.1</v>
+        <v>-0.05</v>
       </c>
       <c r="E26" s="4">
-        <v>-0.05</v>
+        <v>-0.03</v>
       </c>
       <c r="F26" s="3">
-        <v>9.83</v>
+        <v>7.12</v>
       </c>
       <c r="G26" s="2">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="H26" s="2">
-        <v>112.5</v>
+        <v>95.55</v>
       </c>
       <c r="I26" s="2">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="J26" s="2">
-        <v>374</v>
+        <v>587</v>
       </c>
       <c r="K26" s="16">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="L26" s="29"/>
       <c r="M26" s="17">
-        <v>0.25</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="N26" s="29"/>
       <c r="O26" s="18">
-        <v>1.25</v>
+        <v>0.81</v>
       </c>
       <c r="P26" s="29"/>
       <c r="Q26" s="19">
-        <v>1.88</v>
+        <v>1.21</v>
       </c>
       <c r="R26" s="29"/>
       <c r="S26" s="2"/>
@@ -2331,49 +2276,49 @@
     </row>
     <row r="27" spans="1:28" ht="18" customHeight="1">
       <c r="A27" s="6" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B27" s="7">
         <v>5</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D27" s="4">
-        <v>-0.08</v>
+        <v>-0.1</v>
       </c>
       <c r="E27" s="4">
-        <v>-7.0000000000000007E-2</v>
+        <v>-0.05</v>
       </c>
       <c r="F27" s="3">
-        <v>10.33</v>
+        <v>9.83</v>
       </c>
       <c r="G27" s="2">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="H27" s="2">
-        <v>98.9</v>
+        <v>112.5</v>
       </c>
       <c r="I27" s="2">
-        <v>0.14000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="J27" s="2">
-        <v>325</v>
+        <v>374</v>
       </c>
       <c r="K27" s="16">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="L27" s="29"/>
       <c r="M27" s="17">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="N27" s="29"/>
       <c r="O27" s="18">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="P27" s="29"/>
       <c r="Q27" s="19">
-        <v>2.16</v>
+        <v>1.88</v>
       </c>
       <c r="R27" s="29"/>
       <c r="S27" s="2"/>
@@ -2388,24 +2333,52 @@
       <c r="AB27" s="2"/>
     </row>
     <row r="28" spans="1:28" ht="18" customHeight="1">
-      <c r="A28" s="27"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="31"/>
-      <c r="R28" s="31"/>
+      <c r="A28" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="7">
+        <v>5</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="4">
+        <v>-0.08</v>
+      </c>
+      <c r="E28" s="4">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="F28" s="3">
+        <v>10.33</v>
+      </c>
+      <c r="G28" s="2">
+        <v>115</v>
+      </c>
+      <c r="H28" s="2">
+        <v>98.9</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J28" s="2">
+        <v>325</v>
+      </c>
+      <c r="K28" s="16">
+        <v>0.16</v>
+      </c>
+      <c r="L28" s="29"/>
+      <c r="M28" s="17">
+        <v>0.27</v>
+      </c>
+      <c r="N28" s="29"/>
+      <c r="O28" s="18">
+        <v>1.44</v>
+      </c>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="19">
+        <v>2.16</v>
+      </c>
+      <c r="R28" s="29"/>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
@@ -2418,60 +2391,24 @@
       <c r="AB28" s="2"/>
     </row>
     <row r="29" spans="1:28" ht="18" customHeight="1">
-      <c r="A29" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="5">
-        <v>6</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="4">
-        <v>-0.08</v>
-      </c>
-      <c r="E29" s="4">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="F29" s="3">
-        <v>13.68</v>
-      </c>
-      <c r="G29" s="2">
-        <v>140</v>
-      </c>
-      <c r="H29" s="2">
-        <v>119</v>
-      </c>
-      <c r="I29" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="J29" s="2">
-        <v>757</v>
-      </c>
-      <c r="K29" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="L29" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="M29" s="17">
-        <v>0.17</v>
-      </c>
-      <c r="N29" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="O29" s="18">
-        <v>0.27</v>
-      </c>
-      <c r="P29" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q29" s="19">
-        <v>0.81</v>
-      </c>
-      <c r="R29" s="26" t="s">
-        <v>6</v>
-      </c>
+      <c r="A29" s="27"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="31"/>
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
@@ -2485,51 +2422,59 @@
     </row>
     <row r="30" spans="1:28" ht="18" customHeight="1">
       <c r="A30" s="6" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B30" s="5">
         <v>6</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D30" s="4">
-        <v>-0.06</v>
+        <v>-0.08</v>
       </c>
       <c r="E30" s="4">
-        <v>-0.05</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="F30" s="3">
-        <v>9.39</v>
+        <v>13.68</v>
       </c>
       <c r="G30" s="2">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="H30" s="2">
-        <v>117.5</v>
+        <v>119</v>
       </c>
       <c r="I30" s="2">
-        <v>0.06</v>
+        <v>0.15</v>
       </c>
       <c r="J30" s="2">
-        <v>1038</v>
+        <v>757</v>
       </c>
       <c r="K30" s="16">
         <v>0.1</v>
       </c>
-      <c r="L30" s="29"/>
+      <c r="L30" s="22" t="s">
+        <v>6</v>
+      </c>
       <c r="M30" s="17">
         <v>0.17</v>
       </c>
-      <c r="N30" s="29"/>
+      <c r="N30" s="24" t="s">
+        <v>6</v>
+      </c>
       <c r="O30" s="18">
         <v>0.27</v>
       </c>
-      <c r="P30" s="29"/>
+      <c r="P30" s="25" t="s">
+        <v>5</v>
+      </c>
       <c r="Q30" s="19">
-        <v>0.59</v>
-      </c>
-      <c r="R30" s="29"/>
+        <v>0.81</v>
+      </c>
+      <c r="R30" s="26" t="s">
+        <v>4</v>
+      </c>
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
@@ -2543,34 +2488,34 @@
     </row>
     <row r="31" spans="1:28" ht="18" customHeight="1">
       <c r="A31" s="6" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B31" s="5">
         <v>6</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D31" s="4">
-        <v>-0.12</v>
+        <v>-0.06</v>
       </c>
       <c r="E31" s="4">
-        <v>-0.08</v>
+        <v>-0.05</v>
       </c>
       <c r="F31" s="3">
-        <v>12.04</v>
+        <v>9.39</v>
       </c>
       <c r="G31" s="2">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="H31" s="2">
-        <v>136.5</v>
+        <v>117.5</v>
       </c>
       <c r="I31" s="2">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="J31" s="2">
-        <v>677</v>
+        <v>1038</v>
       </c>
       <c r="K31" s="16">
         <v>0.1</v>
@@ -2581,11 +2526,11 @@
       </c>
       <c r="N31" s="29"/>
       <c r="O31" s="18">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="P31" s="29"/>
       <c r="Q31" s="19">
-        <v>0.9</v>
+        <v>0.59</v>
       </c>
       <c r="R31" s="29"/>
       <c r="S31" s="2"/>
@@ -2601,49 +2546,49 @@
     </row>
     <row r="32" spans="1:28" ht="18" customHeight="1">
       <c r="A32" s="6" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B32" s="5">
         <v>6</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D32" s="4">
-        <v>-0.01</v>
+        <v>-0.12</v>
       </c>
       <c r="E32" s="4">
-        <v>-0.03</v>
+        <v>-0.08</v>
       </c>
       <c r="F32" s="3">
-        <v>6.86</v>
+        <v>12.04</v>
       </c>
       <c r="G32" s="2">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="H32" s="2">
-        <v>102.35</v>
+        <v>136.5</v>
       </c>
       <c r="I32" s="2">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="J32" s="2">
-        <v>1039</v>
+        <v>677</v>
       </c>
       <c r="K32" s="16">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="L32" s="29"/>
       <c r="M32" s="17">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="N32" s="29"/>
       <c r="O32" s="18">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="P32" s="29"/>
       <c r="Q32" s="19">
-        <v>0.59</v>
+        <v>0.9</v>
       </c>
       <c r="R32" s="29"/>
       <c r="S32" s="2"/>
@@ -2658,24 +2603,52 @@
       <c r="AB32" s="2"/>
     </row>
     <row r="33" spans="1:28" ht="18" customHeight="1">
-      <c r="A33" s="27"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31"/>
-      <c r="P33" s="31"/>
-      <c r="Q33" s="31"/>
-      <c r="R33" s="31"/>
+      <c r="A33" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="5">
+        <v>6</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="4">
+        <v>-0.01</v>
+      </c>
+      <c r="E33" s="4">
+        <v>-0.03</v>
+      </c>
+      <c r="F33" s="3">
+        <v>6.86</v>
+      </c>
+      <c r="G33" s="2">
+        <v>115</v>
+      </c>
+      <c r="H33" s="2">
+        <v>102.35</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="J33" s="2">
+        <v>1039</v>
+      </c>
+      <c r="K33" s="16">
+        <v>0.12</v>
+      </c>
+      <c r="L33" s="29"/>
+      <c r="M33" s="17">
+        <v>0.19</v>
+      </c>
+      <c r="N33" s="29"/>
+      <c r="O33" s="18">
+        <v>0.3</v>
+      </c>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="19">
+        <v>0.59</v>
+      </c>
+      <c r="R33" s="29"/>
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
@@ -2688,33 +2661,27 @@
       <c r="AB33" s="2"/>
     </row>
     <row r="34" spans="1:28" ht="18" customHeight="1">
-      <c r="A34" s="28"/>
+      <c r="A34" s="27"/>
       <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
       <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="28"/>
-      <c r="O34" s="28"/>
-      <c r="P34" s="28"/>
-      <c r="Q34" s="28"/>
-      <c r="R34" s="28"/>
-      <c r="S34" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="T34" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="U34" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="31"/>
+      <c r="R34" s="31"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
       <c r="X34" s="2"/>
@@ -2724,66 +2691,26 @@
       <c r="AB34" s="2"/>
     </row>
     <row r="35" spans="1:28" ht="18" customHeight="1">
-      <c r="A35" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35" s="11">
-        <v>1</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="3">
-        <v>1.01</v>
-      </c>
-      <c r="G35" s="2">
-        <v>10</v>
-      </c>
-      <c r="H35" s="21">
-        <v>8.5</v>
-      </c>
-      <c r="I35" s="21">
-        <v>0.15</v>
-      </c>
-      <c r="J35" s="21">
-        <v>87</v>
-      </c>
-      <c r="K35" s="16">
-        <v>4</v>
-      </c>
-      <c r="L35" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="M35" s="17">
-        <v>4</v>
-      </c>
-      <c r="N35" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="O35" s="18">
-        <v>6</v>
-      </c>
-      <c r="P35" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q35" s="19">
-        <v>8</v>
-      </c>
-      <c r="R35" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="S35" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="T35" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A35" s="28"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="28"/>
+      <c r="P35" s="28"/>
+      <c r="Q35" s="28"/>
+      <c r="R35" s="28"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
       <c r="U35" s="2"/>
       <c r="V35" s="2"/>
       <c r="W35" s="2"/>
@@ -2794,58 +2721,28 @@
       <c r="AB35" s="2"/>
     </row>
     <row r="36" spans="1:28" ht="18" customHeight="1">
-      <c r="A36" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="11">
-        <v>1</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="3">
-        <v>0.37</v>
-      </c>
-      <c r="G36" s="2">
-        <v>10</v>
-      </c>
-      <c r="H36" s="21">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="I36" s="21">
-        <v>0.08</v>
-      </c>
-      <c r="J36" s="21">
-        <v>87</v>
-      </c>
-      <c r="K36" s="16">
-        <v>4</v>
-      </c>
-      <c r="L36" s="29"/>
-      <c r="M36" s="17">
-        <v>4</v>
-      </c>
-      <c r="N36" s="29"/>
-      <c r="O36" s="18">
-        <v>6</v>
-      </c>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="19">
-        <v>8</v>
-      </c>
-      <c r="R36" s="29"/>
-      <c r="S36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="T36" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A36" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="32"/>
+      <c r="P36" s="32"/>
+      <c r="Q36" s="32"/>
+      <c r="R36" s="32"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
       <c r="U36" s="2"/>
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
@@ -2857,57 +2754,61 @@
     </row>
     <row r="37" spans="1:28" ht="18" customHeight="1">
       <c r="A37" s="6" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B37" s="11">
         <v>1</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F37" s="3">
-        <v>0.41</v>
+        <v>1.01</v>
       </c>
       <c r="G37" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H37" s="21">
-        <v>11.28</v>
+        <v>8.5</v>
       </c>
       <c r="I37" s="21">
-        <v>0.06</v>
+        <v>0.15</v>
       </c>
       <c r="J37" s="21">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="K37" s="16">
         <v>4</v>
       </c>
-      <c r="L37" s="23"/>
+      <c r="L37" s="22" t="s">
+        <v>6</v>
+      </c>
       <c r="M37" s="17">
         <v>4</v>
       </c>
-      <c r="N37" s="23"/>
+      <c r="N37" s="24" t="s">
+        <v>6</v>
+      </c>
       <c r="O37" s="18">
         <v>6</v>
       </c>
-      <c r="P37" s="23"/>
+      <c r="P37" s="25" t="s">
+        <v>5</v>
+      </c>
       <c r="Q37" s="19">
         <v>8</v>
       </c>
-      <c r="R37" s="23"/>
-      <c r="S37" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="T37" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="R37" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
       <c r="U37" s="2"/>
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
@@ -2919,31 +2820,31 @@
     </row>
     <row r="38" spans="1:28" ht="18" customHeight="1">
       <c r="A38" s="6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B38" s="11">
         <v>1</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F38" s="3">
-        <v>0.55000000000000004</v>
+        <v>0.37</v>
       </c>
       <c r="G38" s="2">
         <v>10</v>
       </c>
       <c r="H38" s="21">
-        <v>8.8000000000000007</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="I38" s="21">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="J38" s="21">
         <v>87</v>
@@ -2951,25 +2852,21 @@
       <c r="K38" s="16">
         <v>4</v>
       </c>
-      <c r="L38" s="23"/>
+      <c r="L38" s="29"/>
       <c r="M38" s="17">
         <v>4</v>
       </c>
-      <c r="N38" s="23"/>
+      <c r="N38" s="29"/>
       <c r="O38" s="18">
         <v>6</v>
       </c>
-      <c r="P38" s="23"/>
+      <c r="P38" s="29"/>
       <c r="Q38" s="19">
         <v>8</v>
       </c>
-      <c r="R38" s="23"/>
-      <c r="S38" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="T38" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="R38" s="29"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
       <c r="U38" s="2"/>
       <c r="V38" s="2"/>
       <c r="W38" s="2"/>
@@ -2980,25 +2877,53 @@
       <c r="AB38" s="2"/>
     </row>
     <row r="39" spans="1:28" ht="18" customHeight="1">
-      <c r="A39" s="30"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="28"/>
-      <c r="L39" s="31"/>
-      <c r="M39" s="28"/>
-      <c r="N39" s="31"/>
-      <c r="O39" s="28"/>
-      <c r="P39" s="31"/>
-      <c r="Q39" s="28"/>
-      <c r="R39" s="31"/>
-      <c r="S39" s="2"/>
+      <c r="A39" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" s="11">
+        <v>1</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="G39" s="2">
+        <v>12</v>
+      </c>
+      <c r="H39" s="21">
+        <v>11.28</v>
+      </c>
+      <c r="I39" s="21">
+        <v>0.06</v>
+      </c>
+      <c r="J39" s="21">
+        <v>72</v>
+      </c>
+      <c r="K39" s="16">
+        <v>4</v>
+      </c>
+      <c r="L39" s="23"/>
+      <c r="M39" s="17">
+        <v>4</v>
+      </c>
+      <c r="N39" s="23"/>
+      <c r="O39" s="18">
+        <v>6</v>
+      </c>
+      <c r="P39" s="23"/>
+      <c r="Q39" s="19">
+        <v>8</v>
+      </c>
+      <c r="R39" s="23"/>
+      <c r="S39" s="4"/>
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
       <c r="V39" s="2"/>
@@ -3011,65 +2936,53 @@
     </row>
     <row r="40" spans="1:28" ht="18" customHeight="1">
       <c r="A40" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40" s="10">
-        <v>2</v>
+        <v>29</v>
+      </c>
+      <c r="B40" s="11">
+        <v>1</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F40" s="3">
-        <v>1.63</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G40" s="2">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H40" s="21">
-        <v>15.3</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="I40" s="21">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="J40" s="21">
-        <v>153</v>
+        <v>87</v>
       </c>
       <c r="K40" s="16">
-        <v>2</v>
-      </c>
-      <c r="L40" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="L40" s="23"/>
+      <c r="M40" s="17">
+        <v>4</v>
+      </c>
+      <c r="N40" s="23"/>
+      <c r="O40" s="18">
+        <v>6</v>
+      </c>
+      <c r="P40" s="23"/>
+      <c r="Q40" s="19">
         <v>8</v>
       </c>
-      <c r="M40" s="17">
-        <v>2</v>
-      </c>
-      <c r="N40" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="O40" s="18">
-        <v>3</v>
-      </c>
-      <c r="P40" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q40" s="19">
-        <v>4</v>
-      </c>
-      <c r="R40" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="S40" s="4">
-        <v>-0.05</v>
-      </c>
-      <c r="T40" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="R40" s="23"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
       <c r="U40" s="2"/>
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
@@ -3080,58 +2993,26 @@
       <c r="AB40" s="2"/>
     </row>
     <row r="41" spans="1:28" ht="18" customHeight="1">
-      <c r="A41" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B41" s="10">
-        <v>2</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" s="3">
-        <v>1.54</v>
-      </c>
-      <c r="G41" s="2">
-        <v>15</v>
-      </c>
-      <c r="H41" s="21">
-        <v>13.8</v>
-      </c>
-      <c r="I41" s="21">
-        <v>0.08</v>
-      </c>
-      <c r="J41" s="21">
-        <v>172</v>
-      </c>
-      <c r="K41" s="16">
-        <v>2</v>
-      </c>
-      <c r="L41" s="23"/>
-      <c r="M41" s="17">
-        <v>2</v>
-      </c>
-      <c r="N41" s="23"/>
-      <c r="O41" s="18">
-        <v>3</v>
-      </c>
-      <c r="P41" s="23"/>
-      <c r="Q41" s="19">
-        <v>4</v>
-      </c>
-      <c r="R41" s="23"/>
-      <c r="S41" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="T41" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A41" s="30"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="28"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="28"/>
+      <c r="P41" s="31"/>
+      <c r="Q41" s="28"/>
+      <c r="R41" s="31"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
       <c r="U41" s="2"/>
       <c r="V41" s="2"/>
       <c r="W41" s="2"/>
@@ -3143,57 +3024,61 @@
     </row>
     <row r="42" spans="1:28" ht="18" customHeight="1">
       <c r="A42" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B42" s="10">
         <v>2</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F42" s="3">
-        <v>1.69</v>
+        <v>1.63</v>
       </c>
       <c r="G42" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H42" s="21">
-        <v>18.8</v>
+        <v>15.3</v>
       </c>
       <c r="I42" s="21">
-        <v>0.06</v>
+        <v>0.15</v>
       </c>
       <c r="J42" s="21">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="K42" s="16">
         <v>2</v>
       </c>
-      <c r="L42" s="29"/>
+      <c r="L42" s="22" t="s">
+        <v>6</v>
+      </c>
       <c r="M42" s="17">
         <v>2</v>
       </c>
-      <c r="N42" s="29"/>
+      <c r="N42" s="24" t="s">
+        <v>6</v>
+      </c>
       <c r="O42" s="18">
         <v>3</v>
       </c>
-      <c r="P42" s="29"/>
+      <c r="P42" s="25" t="s">
+        <v>5</v>
+      </c>
       <c r="Q42" s="19">
         <v>4</v>
       </c>
-      <c r="R42" s="29"/>
-      <c r="S42" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="T42" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="R42" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="S42" s="4"/>
+      <c r="T42" s="2"/>
       <c r="U42" s="2"/>
       <c r="V42" s="2"/>
       <c r="W42" s="2"/>
@@ -3205,57 +3090,53 @@
     </row>
     <row r="43" spans="1:28" ht="18" customHeight="1">
       <c r="A43" s="6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B43" s="10">
         <v>2</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F43" s="3">
-        <v>0.75</v>
+        <v>1.54</v>
       </c>
       <c r="G43" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H43" s="21">
-        <v>10.6</v>
+        <v>13.8</v>
       </c>
       <c r="I43" s="21">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="J43" s="21">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="K43" s="16">
         <v>2</v>
       </c>
-      <c r="L43" s="29"/>
+      <c r="L43" s="23"/>
       <c r="M43" s="17">
         <v>2</v>
       </c>
-      <c r="N43" s="29"/>
+      <c r="N43" s="23"/>
       <c r="O43" s="18">
         <v>3</v>
       </c>
-      <c r="P43" s="29"/>
+      <c r="P43" s="23"/>
       <c r="Q43" s="19">
         <v>4</v>
       </c>
-      <c r="R43" s="29"/>
-      <c r="S43" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="T43" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="R43" s="23"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
       <c r="W43" s="2"/>
@@ -3266,25 +3147,53 @@
       <c r="AB43" s="2"/>
     </row>
     <row r="44" spans="1:28" ht="18" customHeight="1">
-      <c r="A44" s="30"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="28"/>
-      <c r="K44" s="28"/>
-      <c r="L44" s="31"/>
-      <c r="M44" s="28"/>
-      <c r="N44" s="31"/>
-      <c r="O44" s="28"/>
-      <c r="P44" s="31"/>
-      <c r="Q44" s="28"/>
-      <c r="R44" s="31"/>
-      <c r="S44" s="4"/>
+      <c r="A44" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" s="10">
+        <v>2</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="3">
+        <v>1.69</v>
+      </c>
+      <c r="G44" s="2">
+        <v>20</v>
+      </c>
+      <c r="H44" s="21">
+        <v>18.8</v>
+      </c>
+      <c r="I44" s="21">
+        <v>0.06</v>
+      </c>
+      <c r="J44" s="21">
+        <v>143</v>
+      </c>
+      <c r="K44" s="16">
+        <v>2</v>
+      </c>
+      <c r="L44" s="29"/>
+      <c r="M44" s="17">
+        <v>2</v>
+      </c>
+      <c r="N44" s="29"/>
+      <c r="O44" s="18">
+        <v>3</v>
+      </c>
+      <c r="P44" s="29"/>
+      <c r="Q44" s="19">
+        <v>4</v>
+      </c>
+      <c r="R44" s="29"/>
+      <c r="S44" s="2"/>
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
       <c r="V44" s="2"/>
@@ -3297,65 +3206,53 @@
     </row>
     <row r="45" spans="1:28" ht="18" customHeight="1">
       <c r="A45" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B45" s="9">
+        <v>25</v>
+      </c>
+      <c r="B45" s="10">
+        <v>2</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="G45" s="2">
+        <v>12</v>
+      </c>
+      <c r="H45" s="21">
+        <v>10.6</v>
+      </c>
+      <c r="I45" s="21">
+        <v>0.12</v>
+      </c>
+      <c r="J45" s="21">
+        <v>202</v>
+      </c>
+      <c r="K45" s="16">
+        <v>2</v>
+      </c>
+      <c r="L45" s="29"/>
+      <c r="M45" s="17">
+        <v>2</v>
+      </c>
+      <c r="N45" s="29"/>
+      <c r="O45" s="18">
         <v>3</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="4">
-        <v>-0.03</v>
-      </c>
-      <c r="E45" s="4">
-        <v>-0.01</v>
-      </c>
-      <c r="F45" s="3">
-        <v>1.88</v>
-      </c>
-      <c r="G45" s="2">
-        <v>28</v>
-      </c>
-      <c r="H45" s="2">
-        <v>26.32</v>
-      </c>
-      <c r="I45" s="2">
-        <v>0.06</v>
-      </c>
-      <c r="J45" s="2">
-        <v>200</v>
-      </c>
-      <c r="K45" s="16">
-        <v>1.59</v>
-      </c>
-      <c r="L45" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="M45" s="17">
-        <v>2.38</v>
-      </c>
-      <c r="N45" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="O45" s="18">
-        <v>3.97</v>
-      </c>
-      <c r="P45" s="25" t="s">
-        <v>7</v>
-      </c>
+      <c r="P45" s="29"/>
       <c r="Q45" s="19">
-        <v>7.44</v>
-      </c>
-      <c r="R45" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="S45" s="4">
-        <v>-0.05</v>
-      </c>
-      <c r="T45" s="2" t="s">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R45" s="29"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
       <c r="U45" s="2"/>
       <c r="V45" s="2"/>
       <c r="W45" s="2"/>
@@ -3366,61 +3263,27 @@
       <c r="AB45" s="2"/>
     </row>
     <row r="46" spans="1:28" ht="18" customHeight="1">
-      <c r="A46" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B46" s="9">
-        <v>3</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46" s="3">
-        <v>1.38</v>
-      </c>
-      <c r="G46" s="2">
-        <v>40</v>
-      </c>
-      <c r="H46" s="2">
-        <v>36.4</v>
-      </c>
-      <c r="I46" s="2">
-        <v>0.09</v>
-      </c>
-      <c r="J46" s="2">
-        <v>220</v>
-      </c>
-      <c r="K46" s="16">
-        <v>1.44</v>
-      </c>
-      <c r="L46" s="23"/>
-      <c r="M46" s="17">
-        <v>2.16</v>
-      </c>
-      <c r="N46" s="23"/>
-      <c r="O46" s="18">
-        <v>3.6</v>
-      </c>
-      <c r="P46" s="23"/>
-      <c r="Q46" s="19">
-        <v>6.75</v>
-      </c>
-      <c r="R46" s="23"/>
-      <c r="S46" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="T46" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="U46" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="A46" s="30"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="31"/>
+      <c r="M46" s="28"/>
+      <c r="N46" s="31"/>
+      <c r="O46" s="28"/>
+      <c r="P46" s="31"/>
+      <c r="Q46" s="28"/>
+      <c r="R46" s="31"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="2"/>
       <c r="V46" s="2"/>
       <c r="W46" s="2"/>
       <c r="X46" s="2"/>
@@ -3431,60 +3294,62 @@
     </row>
     <row r="47" spans="1:28" ht="18" customHeight="1">
       <c r="A47" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B47" s="9">
         <v>3</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D47" s="4">
-        <v>-0.01</v>
+        <v>-0.03</v>
       </c>
       <c r="E47" s="4">
         <v>-0.01</v>
       </c>
       <c r="F47" s="3">
-        <v>1.32</v>
+        <v>1.88</v>
       </c>
       <c r="G47" s="2">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H47" s="2">
-        <v>29.58</v>
+        <v>26.32</v>
       </c>
       <c r="I47" s="2">
-        <v>0.13</v>
-      </c>
-      <c r="J47" s="21">
-        <v>248</v>
+        <v>0.06</v>
+      </c>
+      <c r="J47" s="2">
+        <v>200</v>
       </c>
       <c r="K47" s="16">
-        <v>1.28</v>
-      </c>
-      <c r="L47" s="23"/>
+        <v>1.59</v>
+      </c>
+      <c r="L47" s="22" t="s">
+        <v>6</v>
+      </c>
       <c r="M47" s="17">
-        <v>1.92</v>
-      </c>
-      <c r="N47" s="23"/>
+        <v>2.38</v>
+      </c>
+      <c r="N47" s="24" t="s">
+        <v>6</v>
+      </c>
       <c r="O47" s="18">
-        <v>3.2</v>
-      </c>
-      <c r="P47" s="23"/>
+        <v>3.97</v>
+      </c>
+      <c r="P47" s="25" t="s">
+        <v>5</v>
+      </c>
       <c r="Q47" s="19">
-        <v>6</v>
-      </c>
-      <c r="R47" s="23"/>
-      <c r="S47" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="T47" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="U47" s="2" t="s">
-        <v>29</v>
-      </c>
+        <v>7.44</v>
+      </c>
+      <c r="R47" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="S47" s="4"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2"/>
       <c r="V47" s="2"/>
       <c r="W47" s="2"/>
       <c r="X47" s="2"/>
@@ -3495,57 +3360,53 @@
     </row>
     <row r="48" spans="1:28" ht="18" customHeight="1">
       <c r="A48" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B48" s="9">
         <v>3</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F48" s="3">
-        <v>0.9</v>
+        <v>1.38</v>
       </c>
       <c r="G48" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H48" s="2">
-        <v>18</v>
+        <v>36.4</v>
       </c>
       <c r="I48" s="2">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="J48" s="2">
-        <v>276</v>
+        <v>220</v>
       </c>
       <c r="K48" s="16">
-        <v>1.1499999999999999</v>
+        <v>1.44</v>
       </c>
       <c r="L48" s="23"/>
       <c r="M48" s="17">
-        <v>1.73</v>
+        <v>2.16</v>
       </c>
       <c r="N48" s="23"/>
       <c r="O48" s="18">
-        <v>2.88</v>
+        <v>3.6</v>
       </c>
       <c r="P48" s="23"/>
       <c r="Q48" s="19">
-        <v>5.39</v>
+        <v>6.75</v>
       </c>
       <c r="R48" s="23"/>
-      <c r="S48" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="T48" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
       <c r="U48" s="2"/>
       <c r="V48" s="2"/>
       <c r="W48" s="2"/>
@@ -3556,25 +3417,53 @@
       <c r="AB48" s="2"/>
     </row>
     <row r="49" spans="1:28" ht="18" customHeight="1">
-      <c r="A49" s="27"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="28"/>
-      <c r="K49" s="28"/>
-      <c r="L49" s="28"/>
-      <c r="M49" s="28"/>
-      <c r="N49" s="28"/>
-      <c r="O49" s="28"/>
-      <c r="P49" s="28"/>
-      <c r="Q49" s="28"/>
-      <c r="R49" s="28"/>
-      <c r="S49" s="2"/>
+      <c r="A49" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" s="9">
+        <v>3</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="4">
+        <v>-0.01</v>
+      </c>
+      <c r="E49" s="4">
+        <v>-0.01</v>
+      </c>
+      <c r="F49" s="3">
+        <v>1.32</v>
+      </c>
+      <c r="G49" s="2">
+        <v>34</v>
+      </c>
+      <c r="H49" s="2">
+        <v>29.58</v>
+      </c>
+      <c r="I49" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="J49" s="21">
+        <v>248</v>
+      </c>
+      <c r="K49" s="16">
+        <v>1.28</v>
+      </c>
+      <c r="L49" s="23"/>
+      <c r="M49" s="17">
+        <v>1.92</v>
+      </c>
+      <c r="N49" s="23"/>
+      <c r="O49" s="18">
+        <v>3.2</v>
+      </c>
+      <c r="P49" s="23"/>
+      <c r="Q49" s="19">
+        <v>6</v>
+      </c>
+      <c r="R49" s="23"/>
+      <c r="S49" s="4"/>
       <c r="T49" s="2"/>
       <c r="U49" s="2"/>
       <c r="V49" s="2"/>
@@ -3587,68 +3476,54 @@
     </row>
     <row r="50" spans="1:28" ht="18" customHeight="1">
       <c r="A50" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B50" s="8">
-        <v>4</v>
+        <v>21</v>
+      </c>
+      <c r="B50" s="9">
+        <v>3</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D50" s="4">
-        <v>-0.06</v>
-      </c>
-      <c r="E50" s="4">
-        <v>-0.04</v>
+        <v>7</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F50" s="3">
-        <v>3.59</v>
+        <v>0.9</v>
       </c>
       <c r="G50" s="2">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="H50" s="2">
-        <v>50.6</v>
+        <v>18</v>
       </c>
       <c r="I50" s="2">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="J50" s="2">
-        <v>238</v>
+        <v>276</v>
       </c>
       <c r="K50" s="16">
-        <v>0.21</v>
-      </c>
-      <c r="L50" s="22" t="s">
-        <v>8</v>
-      </c>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="L50" s="23"/>
       <c r="M50" s="17">
-        <v>1.47</v>
-      </c>
-      <c r="N50" s="24" t="s">
-        <v>8</v>
-      </c>
+        <v>1.73</v>
+      </c>
+      <c r="N50" s="23"/>
       <c r="O50" s="18">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="P50" s="25" t="s">
-        <v>7</v>
-      </c>
+        <v>2.88</v>
+      </c>
+      <c r="P50" s="23"/>
       <c r="Q50" s="19">
-        <v>4.59</v>
-      </c>
-      <c r="R50" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="S50" s="4">
-        <v>-0.1</v>
-      </c>
-      <c r="T50" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="U50" s="2" t="s">
-        <v>26</v>
-      </c>
+        <v>5.39</v>
+      </c>
+      <c r="R50" s="23"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+      <c r="U50" s="2"/>
       <c r="V50" s="2"/>
       <c r="W50" s="2"/>
       <c r="X50" s="2"/>
@@ -3658,61 +3533,27 @@
       <c r="AB50" s="2"/>
     </row>
     <row r="51" spans="1:28" ht="18" customHeight="1">
-      <c r="A51" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B51" s="8">
-        <v>4</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E51" s="4">
-        <v>-0.02</v>
-      </c>
-      <c r="F51" s="3">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="G51" s="2">
-        <v>35</v>
-      </c>
-      <c r="H51" s="2">
-        <v>29.75</v>
-      </c>
-      <c r="I51" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="J51" s="2">
-        <v>587</v>
-      </c>
-      <c r="K51" s="16">
-        <v>0.11</v>
-      </c>
-      <c r="L51" s="23"/>
-      <c r="M51" s="17">
-        <v>0.6</v>
-      </c>
-      <c r="N51" s="23"/>
-      <c r="O51" s="18">
-        <v>1</v>
-      </c>
-      <c r="P51" s="23"/>
-      <c r="Q51" s="19">
-        <v>1.88</v>
-      </c>
-      <c r="R51" s="23"/>
-      <c r="S51" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="T51" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="U51" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="A51" s="27"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="28"/>
+      <c r="K51" s="28"/>
+      <c r="L51" s="28"/>
+      <c r="M51" s="28"/>
+      <c r="N51" s="28"/>
+      <c r="O51" s="28"/>
+      <c r="P51" s="28"/>
+      <c r="Q51" s="28"/>
+      <c r="R51" s="28"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2"/>
       <c r="V51" s="2"/>
       <c r="W51" s="2"/>
       <c r="X51" s="2"/>
@@ -3723,7 +3564,7 @@
     </row>
     <row r="52" spans="1:28" ht="18" customHeight="1">
       <c r="A52" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B52" s="8">
         <v>4</v>
@@ -3732,48 +3573,52 @@
         <v>0</v>
       </c>
       <c r="D52" s="4">
-        <v>-0.04</v>
+        <v>-0.06</v>
       </c>
       <c r="E52" s="4">
         <v>-0.04</v>
       </c>
       <c r="F52" s="3">
-        <v>4.05</v>
+        <v>3.59</v>
       </c>
       <c r="G52" s="2">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="H52" s="2">
-        <v>43.2</v>
+        <v>50.6</v>
       </c>
       <c r="I52" s="2">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="J52" s="2">
-        <v>404</v>
+        <v>238</v>
       </c>
       <c r="K52" s="16">
-        <v>0.12</v>
-      </c>
-      <c r="L52" s="23"/>
+        <v>0.21</v>
+      </c>
+      <c r="L52" s="22" t="s">
+        <v>6</v>
+      </c>
       <c r="M52" s="17">
-        <v>0.88</v>
-      </c>
-      <c r="N52" s="23"/>
+        <v>1.47</v>
+      </c>
+      <c r="N52" s="24" t="s">
+        <v>6</v>
+      </c>
       <c r="O52" s="18">
-        <v>1.47</v>
-      </c>
-      <c r="P52" s="23"/>
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="P52" s="25" t="s">
+        <v>5</v>
+      </c>
       <c r="Q52" s="19">
-        <v>2.76</v>
-      </c>
-      <c r="R52" s="23"/>
-      <c r="S52" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="T52" s="2" t="s">
-        <v>2</v>
-      </c>
+        <v>4.59</v>
+      </c>
+      <c r="R52" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="S52" s="4"/>
+      <c r="T52" s="2"/>
       <c r="U52" s="2"/>
       <c r="V52" s="2"/>
       <c r="W52" s="2"/>
@@ -3785,57 +3630,53 @@
     </row>
     <row r="53" spans="1:28" ht="18" customHeight="1">
       <c r="A53" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B53" s="8">
         <v>4</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="4">
-        <v>-0.03</v>
+        <v>7</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="E53" s="4">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="F53" s="3">
-        <v>2.2400000000000002</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="G53" s="2">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H53" s="2">
-        <v>26.4</v>
+        <v>29.75</v>
       </c>
       <c r="I53" s="2">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="J53" s="2">
-        <v>448</v>
+        <v>587</v>
       </c>
       <c r="K53" s="16">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="L53" s="23"/>
       <c r="M53" s="17">
-        <v>0.78</v>
+        <v>0.6</v>
       </c>
       <c r="N53" s="23"/>
       <c r="O53" s="18">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="P53" s="23"/>
       <c r="Q53" s="19">
-        <v>2.44</v>
+        <v>1.88</v>
       </c>
       <c r="R53" s="23"/>
-      <c r="S53" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="T53" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="S53" s="4"/>
+      <c r="T53" s="2"/>
       <c r="U53" s="2"/>
       <c r="V53" s="2"/>
       <c r="W53" s="2"/>
@@ -3846,27 +3687,53 @@
       <c r="AB53" s="2"/>
     </row>
     <row r="54" spans="1:28" ht="18" customHeight="1">
-      <c r="A54" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="B54" s="28"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="28"/>
-      <c r="K54" s="28"/>
-      <c r="L54" s="28"/>
-      <c r="M54" s="28"/>
-      <c r="N54" s="28"/>
-      <c r="O54" s="28"/>
-      <c r="P54" s="28"/>
-      <c r="Q54" s="28"/>
-      <c r="R54" s="28"/>
-      <c r="S54" s="2"/>
+      <c r="A54" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B54" s="8">
+        <v>4</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54" s="4">
+        <v>-0.04</v>
+      </c>
+      <c r="E54" s="4">
+        <v>-0.04</v>
+      </c>
+      <c r="F54" s="3">
+        <v>4.05</v>
+      </c>
+      <c r="G54" s="2">
+        <v>48</v>
+      </c>
+      <c r="H54" s="2">
+        <v>43.2</v>
+      </c>
+      <c r="I54" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J54" s="2">
+        <v>404</v>
+      </c>
+      <c r="K54" s="16">
+        <v>0.12</v>
+      </c>
+      <c r="L54" s="23"/>
+      <c r="M54" s="17">
+        <v>0.88</v>
+      </c>
+      <c r="N54" s="23"/>
+      <c r="O54" s="18">
+        <v>1.47</v>
+      </c>
+      <c r="P54" s="23"/>
+      <c r="Q54" s="19">
+        <v>2.76</v>
+      </c>
+      <c r="R54" s="23"/>
+      <c r="S54" s="4"/>
       <c r="T54" s="2"/>
       <c r="U54" s="2"/>
       <c r="V54" s="2"/>
@@ -3879,68 +3746,54 @@
     </row>
     <row r="55" spans="1:28" ht="18" customHeight="1">
       <c r="A55" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B55" s="7">
-        <v>5</v>
+        <v>17</v>
+      </c>
+      <c r="B55" s="8">
+        <v>4</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D55" s="4">
-        <v>-0.06</v>
+        <v>-0.03</v>
       </c>
       <c r="E55" s="4">
-        <v>-0.05</v>
+        <v>-0.01</v>
       </c>
       <c r="F55" s="3">
-        <v>3.89</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="G55" s="2">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="H55" s="2">
-        <v>69.75</v>
+        <v>26.4</v>
       </c>
       <c r="I55" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.12</v>
       </c>
       <c r="J55" s="2">
-        <v>366</v>
+        <v>448</v>
       </c>
       <c r="K55" s="16">
-        <v>0.11</v>
-      </c>
-      <c r="L55" s="22" t="s">
-        <v>8</v>
-      </c>
+        <v>0.12</v>
+      </c>
+      <c r="L55" s="23"/>
       <c r="M55" s="17">
-        <v>0.17</v>
-      </c>
-      <c r="N55" s="24" t="s">
-        <v>8</v>
-      </c>
+        <v>0.78</v>
+      </c>
+      <c r="N55" s="23"/>
       <c r="O55" s="18">
-        <v>1.4</v>
-      </c>
-      <c r="P55" s="25" t="s">
-        <v>7</v>
-      </c>
+        <v>1.3</v>
+      </c>
+      <c r="P55" s="23"/>
       <c r="Q55" s="19">
-        <v>2.63</v>
-      </c>
-      <c r="R55" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="S55" s="4">
-        <v>-0.15</v>
-      </c>
-      <c r="T55" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="U55" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>2.44</v>
+      </c>
+      <c r="R55" s="23"/>
+      <c r="S55" s="4"/>
+      <c r="T55" s="2"/>
+      <c r="U55" s="2"/>
       <c r="V55" s="2"/>
       <c r="W55" s="2"/>
       <c r="X55" s="2"/>
@@ -3950,61 +3803,29 @@
       <c r="AB55" s="2"/>
     </row>
     <row r="56" spans="1:28" ht="18" customHeight="1">
-      <c r="A56" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B56" s="7">
-        <v>5</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="4">
-        <v>-0.01</v>
-      </c>
-      <c r="E56" s="4">
-        <v>-0.01</v>
-      </c>
-      <c r="F56" s="3">
-        <v>1.71</v>
-      </c>
-      <c r="G56" s="2">
-        <v>40</v>
-      </c>
-      <c r="H56" s="2">
-        <v>33.6</v>
-      </c>
-      <c r="I56" s="2">
-        <v>0.16</v>
-      </c>
-      <c r="J56" s="2">
-        <v>1144</v>
-      </c>
-      <c r="K56" s="16">
-        <v>0.05</v>
-      </c>
-      <c r="L56" s="23"/>
-      <c r="M56" s="17">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="N56" s="23"/>
-      <c r="O56" s="18">
-        <v>0.45</v>
-      </c>
-      <c r="P56" s="23"/>
-      <c r="Q56" s="19">
-        <v>0.85</v>
-      </c>
-      <c r="R56" s="23"/>
-      <c r="S56" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="T56" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="U56" s="2" t="s">
+      <c r="A56" s="27" t="s">
         <v>16</v>
       </c>
+      <c r="B56" s="28"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="28"/>
+      <c r="K56" s="28"/>
+      <c r="L56" s="28"/>
+      <c r="M56" s="28"/>
+      <c r="N56" s="28"/>
+      <c r="O56" s="28"/>
+      <c r="P56" s="28"/>
+      <c r="Q56" s="28"/>
+      <c r="R56" s="28"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
+      <c r="U56" s="2"/>
       <c r="V56" s="2"/>
       <c r="W56" s="2"/>
       <c r="X56" s="2"/>
@@ -4024,48 +3845,52 @@
         <v>0</v>
       </c>
       <c r="D57" s="4">
-        <v>-0.04</v>
+        <v>-0.06</v>
       </c>
       <c r="E57" s="4">
-        <v>-0.03</v>
+        <v>-0.05</v>
       </c>
       <c r="F57" s="3">
-        <v>3.63</v>
+        <v>3.89</v>
       </c>
       <c r="G57" s="2">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="H57" s="2">
-        <v>46.5</v>
+        <v>69.75</v>
       </c>
       <c r="I57" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="J57" s="2">
-        <v>826</v>
+        <v>366</v>
       </c>
       <c r="K57" s="16">
-        <v>0.05</v>
-      </c>
-      <c r="L57" s="23"/>
+        <v>0.11</v>
+      </c>
+      <c r="L57" s="22" t="s">
+        <v>6</v>
+      </c>
       <c r="M57" s="17">
-        <v>0.08</v>
-      </c>
-      <c r="N57" s="23"/>
+        <v>0.17</v>
+      </c>
+      <c r="N57" s="24" t="s">
+        <v>6</v>
+      </c>
       <c r="O57" s="18">
-        <v>0.63</v>
-      </c>
-      <c r="P57" s="23"/>
+        <v>1.4</v>
+      </c>
+      <c r="P57" s="25" t="s">
+        <v>5</v>
+      </c>
       <c r="Q57" s="19">
-        <v>1.18</v>
-      </c>
-      <c r="R57" s="23"/>
-      <c r="S57" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="T57" s="2" t="s">
-        <v>2</v>
-      </c>
+        <v>2.63</v>
+      </c>
+      <c r="R57" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="S57" s="4"/>
+      <c r="T57" s="2"/>
       <c r="U57" s="2"/>
       <c r="V57" s="2"/>
       <c r="W57" s="2"/>
@@ -4083,51 +3908,47 @@
         <v>5</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="D58" s="4">
+        <v>-0.01</v>
       </c>
       <c r="E58" s="4">
-        <v>-0.03</v>
+        <v>-0.01</v>
       </c>
       <c r="F58" s="3">
-        <v>3.6</v>
+        <v>1.71</v>
       </c>
       <c r="G58" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H58" s="2">
-        <v>18.600000000000001</v>
+        <v>33.6</v>
       </c>
       <c r="I58" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.16</v>
       </c>
       <c r="J58" s="2">
-        <v>826</v>
+        <v>1144</v>
       </c>
       <c r="K58" s="16">
         <v>0.05</v>
       </c>
       <c r="L58" s="23"/>
       <c r="M58" s="17">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="N58" s="23"/>
       <c r="O58" s="18">
-        <v>0.63</v>
+        <v>0.45</v>
       </c>
       <c r="P58" s="23"/>
       <c r="Q58" s="19">
-        <v>1.18</v>
+        <v>0.85</v>
       </c>
       <c r="R58" s="23"/>
-      <c r="S58" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="T58" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="S58" s="4"/>
+      <c r="T58" s="2"/>
       <c r="U58" s="2"/>
       <c r="V58" s="2"/>
       <c r="W58" s="2"/>
@@ -4139,7 +3960,7 @@
     </row>
     <row r="59" spans="1:28" ht="18" customHeight="1">
       <c r="A59" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B59" s="7">
         <v>5</v>
@@ -4154,7 +3975,7 @@
         <v>-0.03</v>
       </c>
       <c r="F59" s="3">
-        <v>3.8</v>
+        <v>3.63</v>
       </c>
       <c r="G59" s="2">
         <v>50</v>
@@ -4184,12 +4005,8 @@
         <v>1.18</v>
       </c>
       <c r="R59" s="23"/>
-      <c r="S59" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="T59" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="S59" s="4"/>
+      <c r="T59" s="2"/>
       <c r="U59" s="2"/>
       <c r="V59" s="2"/>
       <c r="W59" s="2"/>
@@ -4201,7 +4018,7 @@
     </row>
     <row r="60" spans="1:28" ht="18" customHeight="1">
       <c r="A60" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B60" s="7">
         <v>5</v>
@@ -4209,49 +4026,45 @@
       <c r="C60" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D60" s="4">
-        <v>-0.04</v>
+      <c r="D60" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="E60" s="4">
         <v>-0.03</v>
       </c>
       <c r="F60" s="3">
-        <v>2.2999999999999998</v>
+        <v>3.6</v>
       </c>
       <c r="G60" s="2">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="H60" s="2">
-        <v>37.799999999999997</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="I60" s="2">
-        <v>0.16</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J60" s="2">
-        <v>657</v>
+        <v>826</v>
       </c>
       <c r="K60" s="16">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="L60" s="23"/>
       <c r="M60" s="17">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="N60" s="23"/>
       <c r="O60" s="18">
-        <v>0.78</v>
+        <v>0.63</v>
       </c>
       <c r="P60" s="23"/>
       <c r="Q60" s="19">
-        <v>1.46</v>
+        <v>1.18</v>
       </c>
       <c r="R60" s="23"/>
-      <c r="S60" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="T60" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="S60" s="4"/>
+      <c r="T60" s="2"/>
       <c r="U60" s="2"/>
       <c r="V60" s="2"/>
       <c r="W60" s="2"/>
@@ -4262,25 +4075,53 @@
       <c r="AB60" s="2"/>
     </row>
     <row r="61" spans="1:28" ht="18" customHeight="1">
-      <c r="A61" s="27"/>
-      <c r="B61" s="28"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="28"/>
-      <c r="H61" s="28"/>
-      <c r="I61" s="28"/>
-      <c r="J61" s="28"/>
-      <c r="K61" s="28"/>
-      <c r="L61" s="28"/>
-      <c r="M61" s="28"/>
-      <c r="N61" s="28"/>
-      <c r="O61" s="28"/>
-      <c r="P61" s="28"/>
-      <c r="Q61" s="28"/>
-      <c r="R61" s="28"/>
-      <c r="S61" s="2"/>
+      <c r="A61" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" s="7">
+        <v>5</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D61" s="4">
+        <v>-0.04</v>
+      </c>
+      <c r="E61" s="4">
+        <v>-0.03</v>
+      </c>
+      <c r="F61" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="G61" s="2">
+        <v>50</v>
+      </c>
+      <c r="H61" s="2">
+        <v>46.5</v>
+      </c>
+      <c r="I61" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J61" s="2">
+        <v>826</v>
+      </c>
+      <c r="K61" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="L61" s="23"/>
+      <c r="M61" s="17">
+        <v>0.08</v>
+      </c>
+      <c r="N61" s="23"/>
+      <c r="O61" s="18">
+        <v>0.63</v>
+      </c>
+      <c r="P61" s="23"/>
+      <c r="Q61" s="19">
+        <v>1.18</v>
+      </c>
+      <c r="R61" s="23"/>
+      <c r="S61" s="4"/>
       <c r="T61" s="2"/>
       <c r="U61" s="2"/>
       <c r="V61" s="2"/>
@@ -4293,68 +4134,54 @@
     </row>
     <row r="62" spans="1:28" ht="18" customHeight="1">
       <c r="A62" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B62" s="5">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="B62" s="7">
+        <v>5</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D62" s="4">
+        <v>-0.04</v>
+      </c>
+      <c r="E62" s="4">
         <v>-0.03</v>
       </c>
-      <c r="E62" s="4">
-        <v>-0.01</v>
-      </c>
       <c r="F62" s="3">
-        <v>2.06</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G62" s="2">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H62" s="2">
-        <v>45</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="I62" s="2">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
       <c r="J62" s="2">
-        <v>1491</v>
+        <v>657</v>
       </c>
       <c r="K62" s="16">
-        <v>0.03</v>
-      </c>
-      <c r="L62" s="22" t="s">
-        <v>8</v>
-      </c>
+        <v>0.06</v>
+      </c>
+      <c r="L62" s="23"/>
       <c r="M62" s="17">
-        <v>0.05</v>
-      </c>
-      <c r="N62" s="24" t="s">
-        <v>8</v>
-      </c>
+        <v>0.09</v>
+      </c>
+      <c r="N62" s="23"/>
       <c r="O62" s="18">
-        <v>0.08</v>
-      </c>
-      <c r="P62" s="25" t="s">
-        <v>7</v>
-      </c>
+        <v>0.78</v>
+      </c>
+      <c r="P62" s="23"/>
       <c r="Q62" s="19">
-        <v>0.65</v>
-      </c>
-      <c r="R62" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="S62" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="T62" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="U62" s="2" t="s">
-        <v>5</v>
-      </c>
+        <v>1.46</v>
+      </c>
+      <c r="R62" s="23"/>
+      <c r="S62" s="4"/>
+      <c r="T62" s="2"/>
+      <c r="U62" s="2"/>
       <c r="V62" s="2"/>
       <c r="W62" s="2"/>
       <c r="X62" s="2"/>
@@ -4364,58 +4191,26 @@
       <c r="AB62" s="2"/>
     </row>
     <row r="63" spans="1:28" ht="18" customHeight="1">
-      <c r="A63" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B63" s="5">
-        <v>6</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D63" s="4">
-        <v>-0.08</v>
-      </c>
-      <c r="E63" s="4">
-        <v>-0.03</v>
-      </c>
-      <c r="F63" s="3">
-        <v>3.63</v>
-      </c>
-      <c r="G63" s="2">
-        <v>60</v>
-      </c>
-      <c r="H63" s="2">
-        <v>55.8</v>
-      </c>
-      <c r="I63" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="J63" s="2">
-        <v>1737</v>
-      </c>
-      <c r="K63" s="16">
-        <v>0.03</v>
-      </c>
-      <c r="L63" s="23"/>
-      <c r="M63" s="17">
-        <v>0.05</v>
-      </c>
-      <c r="N63" s="23"/>
-      <c r="O63" s="18">
-        <v>0.08</v>
-      </c>
-      <c r="P63" s="23"/>
-      <c r="Q63" s="19">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="R63" s="23"/>
-      <c r="S63" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="T63" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A63" s="27"/>
+      <c r="B63" s="28"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="28"/>
+      <c r="J63" s="28"/>
+      <c r="K63" s="28"/>
+      <c r="L63" s="28"/>
+      <c r="M63" s="28"/>
+      <c r="N63" s="28"/>
+      <c r="O63" s="28"/>
+      <c r="P63" s="28"/>
+      <c r="Q63" s="28"/>
+      <c r="R63" s="28"/>
+      <c r="S63" s="2"/>
+      <c r="T63" s="2"/>
       <c r="U63" s="2"/>
       <c r="V63" s="2"/>
       <c r="W63" s="2"/>
@@ -4427,57 +4222,61 @@
     </row>
     <row r="64" spans="1:28" ht="18" customHeight="1">
       <c r="A64" s="6" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B64" s="5">
         <v>6</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D64" s="4">
-        <v>-0.04</v>
+        <v>-0.03</v>
       </c>
       <c r="E64" s="4">
-        <v>-0.03</v>
+        <v>-0.01</v>
       </c>
       <c r="F64" s="3">
-        <v>3.58</v>
+        <v>2.06</v>
       </c>
       <c r="G64" s="2">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H64" s="2">
-        <v>46.2</v>
+        <v>45</v>
       </c>
       <c r="I64" s="2">
-        <v>0.16</v>
+        <v>0.1</v>
       </c>
       <c r="J64" s="2">
-        <v>1007</v>
+        <v>1491</v>
       </c>
       <c r="K64" s="16">
-        <v>0.04</v>
-      </c>
-      <c r="L64" s="23"/>
+        <v>0.03</v>
+      </c>
+      <c r="L64" s="22" t="s">
+        <v>6</v>
+      </c>
       <c r="M64" s="17">
         <v>0.05</v>
       </c>
-      <c r="N64" s="23"/>
+      <c r="N64" s="24" t="s">
+        <v>6</v>
+      </c>
       <c r="O64" s="18">
-        <v>0.09</v>
-      </c>
-      <c r="P64" s="23"/>
+        <v>0.08</v>
+      </c>
+      <c r="P64" s="25" t="s">
+        <v>5</v>
+      </c>
       <c r="Q64" s="19">
-        <v>0.96</v>
-      </c>
-      <c r="R64" s="23"/>
-      <c r="S64" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="T64" s="2" t="s">
-        <v>2</v>
-      </c>
+        <v>0.65</v>
+      </c>
+      <c r="R64" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="S64" s="4"/>
+      <c r="T64" s="2"/>
       <c r="U64" s="2"/>
       <c r="V64" s="2"/>
       <c r="W64" s="2"/>
@@ -4489,7 +4288,7 @@
     </row>
     <row r="65" spans="1:28" ht="18" customHeight="1">
       <c r="A65" s="6" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B65" s="5">
         <v>6</v>
@@ -4498,28 +4297,28 @@
         <v>0</v>
       </c>
       <c r="D65" s="4">
-        <v>-0.04</v>
+        <v>-0.08</v>
       </c>
       <c r="E65" s="4">
         <v>-0.03</v>
       </c>
       <c r="F65" s="3">
-        <v>3.8</v>
+        <v>3.63</v>
       </c>
       <c r="G65" s="2">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H65" s="2">
-        <v>46.2</v>
+        <v>55.8</v>
       </c>
       <c r="I65" s="2">
-        <v>0.16</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J65" s="2">
-        <v>1007</v>
+        <v>1737</v>
       </c>
       <c r="K65" s="16">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="L65" s="23"/>
       <c r="M65" s="17">
@@ -4527,14 +4326,14 @@
       </c>
       <c r="N65" s="23"/>
       <c r="O65" s="18">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="P65" s="23"/>
       <c r="Q65" s="19">
-        <v>0.96</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="R65" s="23"/>
-      <c r="S65" s="2"/>
+      <c r="S65" s="4"/>
       <c r="T65" s="2"/>
       <c r="U65" s="2"/>
       <c r="V65" s="2"/>
@@ -4546,25 +4345,53 @@
       <c r="AB65" s="2"/>
     </row>
     <row r="66" spans="1:28" ht="18" customHeight="1">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
-      <c r="K66" s="15"/>
-      <c r="L66" s="15"/>
-      <c r="M66" s="15"/>
-      <c r="N66" s="15"/>
-      <c r="O66" s="15"/>
-      <c r="P66" s="15"/>
-      <c r="Q66" s="15"/>
-      <c r="R66" s="15"/>
-      <c r="S66" s="2"/>
+      <c r="A66" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B66" s="5">
+        <v>6</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D66" s="4">
+        <v>-0.04</v>
+      </c>
+      <c r="E66" s="4">
+        <v>-0.03</v>
+      </c>
+      <c r="F66" s="3">
+        <v>3.58</v>
+      </c>
+      <c r="G66" s="2">
+        <v>55</v>
+      </c>
+      <c r="H66" s="2">
+        <v>46.2</v>
+      </c>
+      <c r="I66" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="J66" s="2">
+        <v>1007</v>
+      </c>
+      <c r="K66" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="L66" s="23"/>
+      <c r="M66" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="N66" s="23"/>
+      <c r="O66" s="18">
+        <v>0.09</v>
+      </c>
+      <c r="P66" s="23"/>
+      <c r="Q66" s="19">
+        <v>0.96</v>
+      </c>
+      <c r="R66" s="23"/>
+      <c r="S66" s="4"/>
       <c r="T66" s="2"/>
       <c r="U66" s="2"/>
       <c r="V66" s="2"/>
@@ -4576,24 +4403,52 @@
       <c r="AB66" s="2"/>
     </row>
     <row r="67" spans="1:28" ht="18" customHeight="1">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-      <c r="K67" s="15"/>
-      <c r="L67" s="15"/>
-      <c r="M67" s="15"/>
-      <c r="N67" s="15"/>
-      <c r="O67" s="15"/>
-      <c r="P67" s="15"/>
-      <c r="Q67" s="15"/>
-      <c r="R67" s="15"/>
+      <c r="A67" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B67" s="5">
+        <v>6</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D67" s="4">
+        <v>-0.04</v>
+      </c>
+      <c r="E67" s="4">
+        <v>-0.03</v>
+      </c>
+      <c r="F67" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="G67" s="2">
+        <v>55</v>
+      </c>
+      <c r="H67" s="2">
+        <v>46.2</v>
+      </c>
+      <c r="I67" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="J67" s="2">
+        <v>1007</v>
+      </c>
+      <c r="K67" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="L67" s="23"/>
+      <c r="M67" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="N67" s="23"/>
+      <c r="O67" s="18">
+        <v>0.09</v>
+      </c>
+      <c r="P67" s="23"/>
+      <c r="Q67" s="19">
+        <v>0.96</v>
+      </c>
+      <c r="R67" s="23"/>
       <c r="S67" s="2"/>
       <c r="T67" s="2"/>
       <c r="U67" s="2"/>
@@ -8175,7 +8030,7 @@
       <c r="AA186" s="2"/>
       <c r="AB186" s="2"/>
     </row>
-    <row r="187" spans="1:28" ht="13.8">
+    <row r="187" spans="1:28" ht="18" customHeight="1">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -8205,7 +8060,7 @@
       <c r="AA187" s="2"/>
       <c r="AB187" s="2"/>
     </row>
-    <row r="188" spans="1:28" ht="13.8">
+    <row r="188" spans="1:28" ht="18" customHeight="1">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -8805,67 +8660,127 @@
       <c r="AA207" s="2"/>
       <c r="AB207" s="2"/>
     </row>
+    <row r="208" spans="1:28" ht="13.8">
+      <c r="A208" s="2"/>
+      <c r="B208" s="2"/>
+      <c r="C208" s="2"/>
+      <c r="D208" s="2"/>
+      <c r="E208" s="2"/>
+      <c r="F208" s="3"/>
+      <c r="G208" s="2"/>
+      <c r="H208" s="2"/>
+      <c r="I208" s="2"/>
+      <c r="J208" s="2"/>
+      <c r="K208" s="15"/>
+      <c r="L208" s="15"/>
+      <c r="M208" s="15"/>
+      <c r="N208" s="15"/>
+      <c r="O208" s="15"/>
+      <c r="P208" s="15"/>
+      <c r="Q208" s="15"/>
+      <c r="R208" s="15"/>
+      <c r="S208" s="2"/>
+      <c r="T208" s="2"/>
+      <c r="U208" s="2"/>
+      <c r="V208" s="2"/>
+      <c r="W208" s="2"/>
+      <c r="X208" s="2"/>
+      <c r="Y208" s="2"/>
+      <c r="Z208" s="2"/>
+      <c r="AA208" s="2"/>
+      <c r="AB208" s="2"/>
+    </row>
+    <row r="209" spans="1:28" ht="13.8">
+      <c r="A209" s="2"/>
+      <c r="B209" s="2"/>
+      <c r="C209" s="2"/>
+      <c r="D209" s="2"/>
+      <c r="E209" s="2"/>
+      <c r="F209" s="3"/>
+      <c r="G209" s="2"/>
+      <c r="H209" s="2"/>
+      <c r="I209" s="2"/>
+      <c r="J209" s="2"/>
+      <c r="K209" s="15"/>
+      <c r="L209" s="15"/>
+      <c r="M209" s="15"/>
+      <c r="N209" s="15"/>
+      <c r="O209" s="15"/>
+      <c r="P209" s="15"/>
+      <c r="Q209" s="15"/>
+      <c r="R209" s="15"/>
+      <c r="S209" s="2"/>
+      <c r="T209" s="2"/>
+      <c r="U209" s="2"/>
+      <c r="V209" s="2"/>
+      <c r="W209" s="2"/>
+      <c r="X209" s="2"/>
+      <c r="Y209" s="2"/>
+      <c r="Z209" s="2"/>
+      <c r="AA209" s="2"/>
+      <c r="AB209" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="L8:L11"/>
-    <mergeCell ref="N8:N11"/>
-    <mergeCell ref="P8:P11"/>
-    <mergeCell ref="R8:R11"/>
-    <mergeCell ref="A12:R12"/>
-    <mergeCell ref="L3:L6"/>
-    <mergeCell ref="N3:N6"/>
-    <mergeCell ref="P3:P6"/>
-    <mergeCell ref="R3:R6"/>
-    <mergeCell ref="A7:R7"/>
-    <mergeCell ref="L18:L22"/>
-    <mergeCell ref="N18:N22"/>
-    <mergeCell ref="P18:P22"/>
-    <mergeCell ref="R18:R22"/>
-    <mergeCell ref="A23:R23"/>
-    <mergeCell ref="L13:L16"/>
-    <mergeCell ref="N13:N16"/>
-    <mergeCell ref="P13:P16"/>
-    <mergeCell ref="R13:R16"/>
-    <mergeCell ref="A17:R17"/>
-    <mergeCell ref="L29:L32"/>
-    <mergeCell ref="N29:N32"/>
-    <mergeCell ref="P29:P32"/>
-    <mergeCell ref="R29:R32"/>
-    <mergeCell ref="A33:R34"/>
-    <mergeCell ref="L24:L27"/>
-    <mergeCell ref="N24:N27"/>
-    <mergeCell ref="P24:P27"/>
-    <mergeCell ref="R24:R27"/>
-    <mergeCell ref="A28:R28"/>
-    <mergeCell ref="L40:L43"/>
-    <mergeCell ref="N40:N43"/>
-    <mergeCell ref="P40:P43"/>
-    <mergeCell ref="R40:R43"/>
-    <mergeCell ref="A44:R44"/>
-    <mergeCell ref="L35:L38"/>
-    <mergeCell ref="N35:N38"/>
-    <mergeCell ref="P35:P38"/>
-    <mergeCell ref="R35:R38"/>
-    <mergeCell ref="A39:R39"/>
-    <mergeCell ref="L50:L53"/>
-    <mergeCell ref="N50:N53"/>
-    <mergeCell ref="P50:P53"/>
-    <mergeCell ref="R50:R53"/>
-    <mergeCell ref="A54:R54"/>
-    <mergeCell ref="L45:L48"/>
-    <mergeCell ref="N45:N48"/>
-    <mergeCell ref="P45:P48"/>
-    <mergeCell ref="R45:R48"/>
-    <mergeCell ref="A49:R49"/>
-    <mergeCell ref="L62:L65"/>
-    <mergeCell ref="N62:N65"/>
-    <mergeCell ref="P62:P65"/>
-    <mergeCell ref="R62:R65"/>
-    <mergeCell ref="L55:L60"/>
-    <mergeCell ref="N55:N60"/>
-    <mergeCell ref="P55:P60"/>
-    <mergeCell ref="R55:R60"/>
-    <mergeCell ref="A61:R61"/>
+    <mergeCell ref="L9:L12"/>
+    <mergeCell ref="N9:N12"/>
+    <mergeCell ref="P9:P12"/>
+    <mergeCell ref="R9:R12"/>
+    <mergeCell ref="A13:R13"/>
+    <mergeCell ref="L4:L7"/>
+    <mergeCell ref="N4:N7"/>
+    <mergeCell ref="P4:P7"/>
+    <mergeCell ref="R4:R7"/>
+    <mergeCell ref="A8:R8"/>
+    <mergeCell ref="L19:L23"/>
+    <mergeCell ref="N19:N23"/>
+    <mergeCell ref="P19:P23"/>
+    <mergeCell ref="R19:R23"/>
+    <mergeCell ref="A24:R24"/>
+    <mergeCell ref="L14:L17"/>
+    <mergeCell ref="N14:N17"/>
+    <mergeCell ref="P14:P17"/>
+    <mergeCell ref="R14:R17"/>
+    <mergeCell ref="A18:R18"/>
+    <mergeCell ref="L30:L33"/>
+    <mergeCell ref="N30:N33"/>
+    <mergeCell ref="P30:P33"/>
+    <mergeCell ref="R30:R33"/>
+    <mergeCell ref="A34:R35"/>
+    <mergeCell ref="L25:L28"/>
+    <mergeCell ref="N25:N28"/>
+    <mergeCell ref="P25:P28"/>
+    <mergeCell ref="R25:R28"/>
+    <mergeCell ref="A29:R29"/>
+    <mergeCell ref="L42:L45"/>
+    <mergeCell ref="N42:N45"/>
+    <mergeCell ref="P42:P45"/>
+    <mergeCell ref="R42:R45"/>
+    <mergeCell ref="A46:R46"/>
+    <mergeCell ref="L37:L40"/>
+    <mergeCell ref="N37:N40"/>
+    <mergeCell ref="P37:P40"/>
+    <mergeCell ref="R37:R40"/>
+    <mergeCell ref="A41:R41"/>
+    <mergeCell ref="L52:L55"/>
+    <mergeCell ref="N52:N55"/>
+    <mergeCell ref="P52:P55"/>
+    <mergeCell ref="R52:R55"/>
+    <mergeCell ref="A56:R56"/>
+    <mergeCell ref="L47:L50"/>
+    <mergeCell ref="N47:N50"/>
+    <mergeCell ref="P47:P50"/>
+    <mergeCell ref="R47:R50"/>
+    <mergeCell ref="A51:R51"/>
+    <mergeCell ref="L64:L67"/>
+    <mergeCell ref="N64:N67"/>
+    <mergeCell ref="P64:P67"/>
+    <mergeCell ref="R64:R67"/>
+    <mergeCell ref="L57:L62"/>
+    <mergeCell ref="N57:N62"/>
+    <mergeCell ref="P57:P62"/>
+    <mergeCell ref="R57:R62"/>
+    <mergeCell ref="A63:R63"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
